--- a/Doc/Dico_Donnees_Archi.xlsx
+++ b/Doc/Dico_Donnees_Archi.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEV\Documents\GitHub\projet_archi\Doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13920" windowHeight="11340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13920" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
   <si>
     <t>Dictionnaire des données</t>
   </si>
@@ -140,9 +135,6 @@
     <t>id_Projets</t>
   </si>
   <si>
-    <t>Identifiant issu de la table telephone</t>
-  </si>
-  <si>
     <t>Identifiant de l'entreprise</t>
   </si>
   <si>
@@ -158,19 +150,130 @@
     <t>nomProjet</t>
   </si>
   <si>
-    <t>En Cours / Etude</t>
-  </si>
-  <si>
     <t>id_Client</t>
   </si>
   <si>
-    <t>Identifiant issu de la table client</t>
+    <t>Travaux</t>
+  </si>
+  <si>
+    <t>id_Travaux</t>
+  </si>
+  <si>
+    <t>Identification des travaux</t>
+  </si>
+  <si>
+    <t>typesTravaux</t>
+  </si>
+  <si>
+    <t>Donner le nom des travaux</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Décrire les travaux</t>
+  </si>
+  <si>
+    <t>En Cours / Fini</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_Images </t>
+  </si>
+  <si>
+    <t>Identifiant de l'image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urlImage </t>
+  </si>
+  <si>
+    <t>url de l'image</t>
+  </si>
+  <si>
+    <t>Description de l'image</t>
+  </si>
+  <si>
+    <t>Identifiant issu de la table Projets</t>
+  </si>
+  <si>
+    <t>Identifiant issu de la table Client</t>
+  </si>
+  <si>
+    <t>Identifiant issu de la table Telephone</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Identifiant du telephone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_Telephone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">telFixe </t>
+  </si>
+  <si>
+    <t>Téléphone fixe</t>
+  </si>
+  <si>
+    <t>Téléphone portable</t>
+  </si>
+  <si>
+    <t>telPortable</t>
+  </si>
+  <si>
+    <t>Identifiant issu de la table Entreprises</t>
+  </si>
+  <si>
+    <t>MessageVisiteurs</t>
+  </si>
+  <si>
+    <t>id_Visiteurs</t>
+  </si>
+  <si>
+    <t>Identifiant du message d'un visiteur du site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nom  </t>
+  </si>
+  <si>
+    <t>Nom du visteur du site</t>
+  </si>
+  <si>
+    <t>prenom</t>
+  </si>
+  <si>
+    <t>Prénom du visteur du site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email </t>
+  </si>
+  <si>
+    <t>email du visteur du site</t>
+  </si>
+  <si>
+    <t>dateMessage</t>
+  </si>
+  <si>
+    <t>Date du message</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>Message du visteur du site</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -196,7 +299,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -208,11 +311,63 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -224,7 +379,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -233,12 +388,61 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -247,17 +451,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -319,7 +548,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -354,7 +583,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -531,7 +760,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -539,365 +768,710 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
+    <col min="5" max="5" width="27.26953125" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="10">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5">
         <v>255</v>
       </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="8"/>
+      <c r="B12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="14">
         <v>11</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="10">
+        <v>11</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="5">
+        <v>25</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="5">
+        <v>25</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5">
+        <v>25</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="7"/>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5">
+        <v>25</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="7"/>
+      <c r="B19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="5">
+        <v>255</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="7"/>
+      <c r="B20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="5">
+        <v>255</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="8"/>
+      <c r="B21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="14">
+        <v>11</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="10">
+        <v>11</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="7"/>
+      <c r="B23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="5">
+        <v>255</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+      <c r="B24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="5">
+        <v>255</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="8"/>
+      <c r="B25" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="14">
+        <v>11</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="10">
+        <v>11</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="5">
+        <v>255</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="8"/>
+      <c r="B28" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="14">
+        <v>255</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="10">
+        <v>11</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="7"/>
+      <c r="B30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="5">
+        <v>100</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="7"/>
+      <c r="B31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="5">
+        <v>255</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="8"/>
+      <c r="B32" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="14">
+        <v>11</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="10">
+        <v>11</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="7"/>
+      <c r="B34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="5">
+        <v>25</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="7"/>
+      <c r="B35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="5">
+        <v>25</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="7"/>
+      <c r="B36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="5">
+        <v>11</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="8"/>
+      <c r="B37" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C37" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="14">
+        <v>11</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D13">
+      <c r="D38" s="10">
         <v>11</v>
       </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17">
-        <v>25</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18">
-        <v>25</v>
-      </c>
-      <c r="E18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19">
+      <c r="E38" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="5">
+        <v>25</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="B40" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="5">
+        <v>25</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="7"/>
+      <c r="B41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="5">
+        <v>100</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="7"/>
+      <c r="B42" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="8"/>
+      <c r="B43" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="14">
         <v>255</v>
       </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20">
-        <v>255</v>
-      </c>
-      <c r="E20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23">
-        <v>255</v>
-      </c>
-      <c r="E23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24">
-        <v>255</v>
-      </c>
-      <c r="E24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25">
-        <v>11</v>
-      </c>
-      <c r="E25" t="s">
-        <v>46</v>
-      </c>
+      <c r="E43" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A37"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Doc/Dico_Donnees_Archi.xlsx
+++ b/Doc/Dico_Donnees_Archi.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEV\Documents\GitHub\projet_archi\Doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13920" windowHeight="11020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13920" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -273,7 +278,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -459,8 +464,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -471,22 +484,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,7 +777,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -770,27 +787,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
-    <col min="5" max="5" width="27.26953125" customWidth="1"/>
-    <col min="6" max="6" width="23.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -810,657 +827,657 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="19">
         <v>11</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
-      <c r="B5" s="3" t="s">
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="20">
         <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="3" t="s">
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="20">
         <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="3" t="s">
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="20">
         <v>25</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="3" t="s">
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="20">
         <v>25</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9" s="3" t="s">
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="20">
         <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
-      <c r="B10" s="3" t="s">
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="20">
         <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="3" t="s">
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="20">
         <v>255</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="13" t="s">
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="21">
         <v>11</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="19">
         <v>11</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
-      <c r="B14" s="3" t="s">
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="20">
         <v>25</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="3" t="s">
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="20">
         <v>25</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
-      <c r="B16" s="3" t="s">
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="20">
         <v>25</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
-      <c r="B17" s="3" t="s">
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="20">
         <v>25</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="7"/>
-      <c r="B18" s="3" t="s">
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="20">
         <v>25</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="7"/>
-      <c r="B19" s="3" t="s">
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="20">
         <v>255</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
-      <c r="B20" s="3" t="s">
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="20">
         <v>255</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="13" t="s">
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="21">
         <v>11</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="19">
         <v>11</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="7"/>
-      <c r="B23" s="3" t="s">
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="20">
         <v>255</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="7"/>
-      <c r="B24" s="3" t="s">
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="20">
         <v>255</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="13" t="s">
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="21">
         <v>11</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="19">
         <v>11</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
-      <c r="B27" s="3" t="s">
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="17" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="20">
         <v>255</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="8"/>
-      <c r="B28" s="13" t="s">
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="14">
+      <c r="C28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="21">
         <v>255</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="19">
         <v>11</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="7"/>
-      <c r="B30" s="3" t="s">
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="20">
         <v>100</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="7"/>
-      <c r="B31" s="3" t="s">
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="20">
         <v>255</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="8"/>
-      <c r="B32" s="13" t="s">
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="21">
         <v>11</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="19">
         <v>11</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="7"/>
-      <c r="B34" s="3" t="s">
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="17" t="s">
         <v>64</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="20">
         <v>25</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="7"/>
-      <c r="B35" s="3" t="s">
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="20">
         <v>25</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="12"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="7"/>
-      <c r="B36" s="3" t="s">
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="20">
         <v>11</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="8"/>
-      <c r="B37" s="13" t="s">
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14"/>
+      <c r="B37" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="21">
         <v>11</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="19">
         <v>11</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="7"/>
-      <c r="B39" s="3" t="s">
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="17" t="s">
         <v>72</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="20">
         <v>25</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="12"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="7"/>
-      <c r="B40" s="3" t="s">
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="17" t="s">
         <v>74</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="20">
         <v>25</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="12"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="7"/>
-      <c r="B41" s="3" t="s">
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="17" t="s">
         <v>76</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="20">
         <v>100</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="12"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="7"/>
-      <c r="B42" s="3" t="s">
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="5"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F42" s="12"/>
-    </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="8"/>
-      <c r="B43" s="13" t="s">
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="14">
+      <c r="C43" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="21">
         <v>255</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F43" s="16"/>
+      <c r="F43" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
